--- a/img/aula03/croqui_anova.xlsx
+++ b/img/aula03/croqui_anova.xlsx
@@ -407,7 +407,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E1"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -434,20 +434,20 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C2">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D2">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="F2">
         <f>SUM(B2:E2)</f>
-        <v>305</v>
+        <v>326</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -455,20 +455,20 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C3">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="D3">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="E3">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="F3">
         <f>SUM(B3:E3)</f>
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -476,20 +476,20 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C4">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D4">
+        <v>22</v>
+      </c>
+      <c r="E4">
         <v>32</v>
-      </c>
-      <c r="E4">
-        <v>33</v>
       </c>
       <c r="F4">
         <f>SUM(B4:E4)</f>
-        <v>126</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -497,20 +497,20 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C5">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D5">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="E5">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F5">
         <f>SUM(B5:E5)</f>
-        <v>340</v>
+        <v>311</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -518,20 +518,20 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C6">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D6">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F6">
         <f>SUM(B6:E6)</f>
-        <v>140</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -539,42 +539,42 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C7">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D7">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E7">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="F7">
         <f>SUM(B7:E7)</f>
-        <v>230</v>
+        <v>202</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8">
         <f>SUM(B2:B7)</f>
-        <v>320</v>
+        <v>352</v>
       </c>
       <c r="C8">
         <f>SUM(C2:C7)</f>
-        <v>316</v>
+        <v>273</v>
       </c>
       <c r="D8">
         <f>SUM(D2:D7)</f>
-        <v>321</v>
+        <v>265</v>
       </c>
       <c r="E8">
         <f>SUM(E2:E7)</f>
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="F8">
         <f>SUM(F2:F7)</f>
-        <v>1334</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -583,7 +583,7 @@
       </c>
       <c r="F9">
         <f>F8^2/(6*4)</f>
-        <v>74148.166666666672</v>
+        <v>66045.041666666672</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -612,15 +612,15 @@
       </c>
       <c r="D11">
         <f>SUMSQ(F2:F7)/4-F9</f>
-        <v>9414.3333333333285</v>
+        <v>10471.208333333328</v>
       </c>
       <c r="E11">
         <f>D11/C11</f>
-        <v>1882.8666666666657</v>
+        <v>2094.2416666666659</v>
       </c>
       <c r="F11">
         <f>E11/E13</f>
-        <v>34.839226973683978</v>
+        <v>155.54507943056808</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -632,15 +632,15 @@
       </c>
       <c r="D12">
         <f>SUMSQ(B8:E8)/6 -F9</f>
-        <v>422.83333333332848</v>
+        <v>1424.791666666657</v>
       </c>
       <c r="E12">
         <f>D12/C12</f>
-        <v>140.94444444444284</v>
+        <v>474.9305555555523</v>
       </c>
       <c r="F12">
         <f>E12/E13</f>
-        <v>2.6079358552631122</v>
+        <v>35.274396533936581</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -653,11 +653,11 @@
       </c>
       <c r="D13">
         <f>D14-D12-D11</f>
-        <v>810.66666666667152</v>
+        <v>201.95833333334303</v>
       </c>
       <c r="E13">
         <f>D13/C13</f>
-        <v>54.044444444444771</v>
+        <v>13.463888888889535</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -669,7 +669,7 @@
       </c>
       <c r="D14">
         <f>SUMSQ(B2:E7)-F9</f>
-        <v>10647.833333333328</v>
+        <v>12097.958333333328</v>
       </c>
     </row>
   </sheetData>

--- a/img/aula03/croqui_anova.xlsx
+++ b/img/aula03/croqui_anova.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\experimentacao-agricola-unesp-fcav\img\aula03\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\experimentacao-agricola-unesp-fcav\img\aula03\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
+    <sheet name="Plan2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="29">
   <si>
     <t>T1</t>
   </si>
@@ -87,6 +88,30 @@
   </si>
   <si>
     <t>BL4</t>
+  </si>
+  <si>
+    <t>Tratamento</t>
+  </si>
+  <si>
+    <t>Bloco</t>
+  </si>
+  <si>
+    <t>Producao</t>
+  </si>
+  <si>
+    <t>Co_413</t>
+  </si>
+  <si>
+    <t>Co_419</t>
+  </si>
+  <si>
+    <t>CB_4019</t>
+  </si>
+  <si>
+    <t>CB_4170</t>
+  </si>
+  <si>
+    <t>CB_4176</t>
   </si>
 </sst>
 </file>
@@ -406,8 +431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -446,7 +471,7 @@
         <v>92</v>
       </c>
       <c r="F2">
-        <f>SUM(B2:E2)</f>
+        <f t="shared" ref="F2:F7" si="0">SUM(B2:E2)</f>
         <v>326</v>
       </c>
     </row>
@@ -467,7 +492,7 @@
         <v>58</v>
       </c>
       <c r="F3">
-        <f>SUM(B3:E3)</f>
+        <f t="shared" si="0"/>
         <v>188</v>
       </c>
     </row>
@@ -488,7 +513,7 @@
         <v>32</v>
       </c>
       <c r="F4">
-        <f>SUM(B4:E4)</f>
+        <f t="shared" si="0"/>
         <v>114</v>
       </c>
     </row>
@@ -509,7 +534,7 @@
         <v>88</v>
       </c>
       <c r="F5">
-        <f>SUM(B5:E5)</f>
+        <f t="shared" si="0"/>
         <v>311</v>
       </c>
     </row>
@@ -530,7 +555,7 @@
         <v>44</v>
       </c>
       <c r="F6">
-        <f>SUM(B6:E6)</f>
+        <f t="shared" si="0"/>
         <v>118</v>
       </c>
     </row>
@@ -551,7 +576,7 @@
         <v>55</v>
       </c>
       <c r="F7">
-        <f>SUM(B7:E7)</f>
+        <f t="shared" si="0"/>
         <v>202</v>
       </c>
     </row>
@@ -675,4 +700,299 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="C22">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24">
+        <v>4</v>
+      </c>
+      <c r="C24">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/img/aula03/croqui_anova.xlsx
+++ b/img/aula03/croqui_anova.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
   <si>
     <t>T1</t>
   </si>
@@ -112,6 +112,9 @@
   </si>
   <si>
     <t>CB_4176</t>
+  </si>
+  <si>
+    <t>CB_4069</t>
   </si>
 </sst>
 </file>
@@ -707,7 +710,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A8" sqref="A8:A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -762,7 +765,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -828,7 +831,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -894,7 +897,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B17">
         <v>3</v>
@@ -960,7 +963,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B23">
         <v>4</v>

--- a/img/aula03/croqui_anova.xlsx
+++ b/img/aula03/croqui_anova.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -434,8 +434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E7"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -709,7 +709,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8:A25"/>
     </sheetView>
   </sheetViews>
